--- a/src/main/java/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\KeyWordsFrameWork\src\main\java\cn\gloryroad\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\KeyWordsFrameWork1\src\main\java\cn\gloryroad\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4AF556-7FDF-4730-96DA-42D892913961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9BC728-D472-4976-A61F-0559DF644A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="945" windowWidth="18675" windowHeight="19650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestStep_07</t>
   </si>
   <si>
@@ -137,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_passWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1q2w3e4r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click_writeLetterLink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestStep_12</t>
   </si>
   <si>
@@ -203,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_recipients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>917719801@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_mailSubject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一封测试邮件的标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click_addAttachment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestStep_18</t>
   </si>
   <si>
@@ -291,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click_sendMailButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestStep_22</t>
   </si>
   <si>
@@ -378,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click_Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D:\d.log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,68 +380,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>操作元素定位表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.logoutlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.writeLetterLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.recipientslink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.recipients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.mailsubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.addattachmentlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.sendmailbuttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendmailsuccesspage.succinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试执行失败</t>
+  </si>
+  <si>
     <t>测试步骤执行成功</t>
   </si>
   <si>
+    <t>测试步骤执行失败</t>
+  </si>
+  <si>
     <t>执行成功</t>
-  </si>
-  <si>
-    <t>操作元素定位表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.iframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage.logoutlink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage.writeLetterLink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.recipientslink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.recipients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.mailsubject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.addattachmentlink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.sendmailbuttons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendmailsuccesspage.succinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,18 +788,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="53.625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="28.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -833,13 +815,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -859,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -879,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -896,10 +878,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,13 +898,13 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -941,9 +923,6 @@
       <c r="F6">
         <v>3000</v>
       </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -956,39 +935,33 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>15609223996</v>
       </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -996,65 +969,56 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1062,45 +1026,39 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1108,22 +1066,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1131,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1142,31 +1097,25 @@
       <c r="F15" s="2">
         <v>5000</v>
       </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1174,39 +1123,33 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1214,42 +1157,36 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1257,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1268,39 +1205,33 @@
       <c r="F21" s="2">
         <v>5000</v>
       </c>
-      <c r="G21" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1308,42 +1239,36 @@
       <c r="F23">
         <v>4000</v>
       </c>
-      <c r="G23" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -1351,31 +1276,25 @@
       <c r="F25">
         <v>3000</v>
       </c>
-      <c r="G25" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1383,19 +1302,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1403,24 +1319,21 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
       </c>
-      <c r="G28" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1432,21 +1345,21 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1455,47 +1368,47 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1510,14 +1423,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,27 +1452,27 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
